--- a/Parameter Distribution/Publication Data.xlsx
+++ b/Parameter Distribution/Publication Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livewarwickac-my.sharepoint.com/personal/u1857308_live_warwick_ac_uk/Documents/PhD/Publication/Parameter estimation of a model describing the human fingers/Supplementary material/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="296" documentId="8_{E9355B23-339D-48BD-8525-D0C35FDC517E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7C3EF84-D2DF-4A00-BAC3-2205DCD93380}"/>
+  <xr:revisionPtr revIDLastSave="311" documentId="8_{E9355B23-339D-48BD-8525-D0C35FDC517E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{747B046E-1A07-456F-B819-3C43EF3503B0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{C2BAB3D2-5541-4568-813B-C05D8B645ED6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C2BAB3D2-5541-4568-813B-C05D8B645ED6}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="16">
   <si>
     <t>Index</t>
   </si>
@@ -107,12 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">Standard Deviation </t>
-  </si>
-  <si>
-    <t>Standard Deviation</t>
-  </si>
-  <si>
-    <t>Variability (%)</t>
   </si>
 </sst>
 </file>
@@ -221,6 +215,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AF1598-3158-4B63-AE72-F99C221FD022}">
   <dimension ref="A1:BE60"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1955,25 +1953,6 @@
       <c r="S28" s="12"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="J29" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29">
-        <f>_xlfn.STDEV.S(K4:K26)</f>
-        <v>8.4619076684686241E-6</v>
-      </c>
-      <c r="L29">
-        <f>_xlfn.STDEV.S(L4:L26)</f>
-        <v>2.1426642655837549E-6</v>
-      </c>
-      <c r="M29">
-        <f>_xlfn.STDEV.S(M4:M26)</f>
-        <v>4.8819351943264509E-7</v>
-      </c>
-      <c r="N29">
-        <f>_xlfn.STDEV.S(N4:N26)</f>
-        <v>2.001659196764973E-5</v>
-      </c>
       <c r="P29" s="1" t="s">
         <v>10</v>
       </c>
@@ -1988,25 +1967,6 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="J30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30">
-        <f>K29*100/AVERAGE(K4:K26)</f>
-        <v>36.267055377925402</v>
-      </c>
-      <c r="L30">
-        <f>L29*100/AVERAGE(L4:L26)</f>
-        <v>36.060729575518572</v>
-      </c>
-      <c r="M30">
-        <f>M29*100/AVERAGE(M4:M26)</f>
-        <v>41.149044217153978</v>
-      </c>
-      <c r="N30">
-        <f>N29*100/AVERAGE(N4:N26)</f>
-        <v>34.970646510796108</v>
-      </c>
       <c r="O30" s="3"/>
       <c r="P30" s="1">
         <f>AVERAGE(_xlfn.ANCHORARRAY(P4))</f>
@@ -2229,6 +2189,1393 @@
   <dimension ref="A1:AJ31"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="K2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="P2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>5.4260999999999997E-2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.7286000000000001E-3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.3099999999999999E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6.3602000000000005E-4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.7206000000000001E-3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.0648E-4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.1779</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4.1167797505769689E-5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>8.4601761656685789E-6</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.5989593299737688E-6</v>
+      </c>
+      <c r="N4" s="1">
+        <v>9.2884438280386105E-5</v>
+      </c>
+      <c r="P4" s="1" cm="1">
+        <f t="array" ref="P4:P26">B4:B26/(2*K4:K26*SQRT(A4:A26/K4:K26))</f>
+        <v>0.57828483038634471</v>
+      </c>
+      <c r="Q4" s="2" cm="1">
+        <f t="array" ref="Q4:Q26">D4:D26/(2*L4:L26*SQRT(C4:C26/L4:L26))</f>
+        <v>0.71935800978209896</v>
+      </c>
+      <c r="R4" s="2" cm="1">
+        <f t="array" ref="R4:R26">F4:F26/(2*M4:M26*SQRT(E4:E26/M4:M26))</f>
+        <v>0.69026022266038634</v>
+      </c>
+      <c r="S4" s="2" cm="1">
+        <f t="array" ref="S4:S26">H4:H26/(2*N4:N26*SQRT(G4:G26/N4:N26))</f>
+        <v>0.6150077026337929</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.5890000000000002E-4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.3800999999999999E-4</v>
+      </c>
+      <c r="G5" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H5" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.699935312314911E-5</v>
+      </c>
+      <c r="L5" s="1">
+        <v>9.4662770203746168E-6</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2.0370916051631638E-6</v>
+      </c>
+      <c r="N5" s="1">
+        <v>7.8392548116236322E-5</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.52727051581508888</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.66152956970834564</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.8057940018997608</v>
+      </c>
+      <c r="S5" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.77E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6.6456999999999996E-4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.9307000000000001E-3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>8.6562000000000002E-5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.12620000000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2.4013474617869273E-5</v>
+      </c>
+      <c r="L6" s="1">
+        <v>9.584046966200826E-6</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1.1676547848728011E-6</v>
+      </c>
+      <c r="N6" s="1">
+        <v>6.8883486056966076E-5</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.61684441533255441</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.80676980777605467</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.73986821909750677</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.57658280291152963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>3.5275000000000001E-2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>9.7022000000000005E-4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.2952E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4.4087999999999999E-4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5.4855000000000002E-5</v>
+      </c>
+      <c r="G7" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H7" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.6680839317348125E-5</v>
+      </c>
+      <c r="L7" s="1">
+        <v>6.6677956490364653E-6</v>
+      </c>
+      <c r="M7" s="1">
+        <v>9.2781732133195738E-7</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4.8275627540355978E-5</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.63240859905807001</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.75012017075348181</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.58123179693903049</v>
+      </c>
+      <c r="S7" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="B8" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.2869E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.9532E-4</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.0793999999999999E-3</v>
+      </c>
+      <c r="F8" s="2">
+        <v>6.5487999999999994E-5</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2.8E-3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1.7778568913219443E-5</v>
+      </c>
+      <c r="L8" s="1">
+        <v>6.8300404071388088E-6</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1.1571537183702186E-6</v>
+      </c>
+      <c r="N8" s="1">
+        <v>5.2022845360513942E-5</v>
+      </c>
+      <c r="P8" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.66670659950519273</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.6675244601268806</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0.65283713796277942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>2.6335999999999998E-2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8.8358000000000002E-4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2.7360999999999998E-4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4.2774000000000001E-5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3.2820000000000002E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>9.8915000000000006E-4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.4360131790560066E-5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5.168856071732809E-6</v>
+      </c>
+      <c r="M9" s="1">
+        <v>7.8227398240022579E-7</v>
+      </c>
+      <c r="N9" s="1">
+        <v>3.9844492773115383E-5</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.71839245375948668</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.65654592141307644</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.76466361611930189</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0.43249263883410671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9.6716E-4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.0465E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.5567E-4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>6.1402000000000006E-5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1.7518288214818752E-5</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4.3425647488700436E-6</v>
+      </c>
+      <c r="M10" s="1">
+        <v>8.0938637482872099E-7</v>
+      </c>
+      <c r="N10" s="1">
+        <v>4.2189375151791399E-5</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.67963161944901251</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.59966266172213412</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.69657672030264217</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0.64712806919357813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>8.5050000000000002E-4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.2782E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.7936999999999998E-4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3.5488000000000003E-5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1.7780641782376191E-5</v>
+      </c>
+      <c r="L11" s="1">
+        <v>5.7294913895545727E-6</v>
+      </c>
+      <c r="M11" s="1">
+        <v>6.6945605108799321E-7</v>
+      </c>
+      <c r="N11" s="1">
+        <v>4.5772974024681841E-5</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="1">
+        <v>0.55431497215520253</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.51616948941418428</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0.5599443457703609</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0.80595579712466625</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>4.9695000000000003E-2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.3778E-3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4.1996999999999998E-4</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.7284000000000002E-3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>6.0182000000000001E-5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.17480000000000001</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2.2769336406098221E-5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>6.7911253575974357E-6</v>
+      </c>
+      <c r="M12" s="1">
+        <v>9.0672462039732525E-7</v>
+      </c>
+      <c r="N12" s="1">
+        <v>5.7184455300693415E-5</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.64762655857030249</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.65573584628851167</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0.6049854028611692</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0.5535136562100319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>3.5762000000000002E-2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.5003E-3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.0961E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>6.5421999999999995E-4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3.8183000000000002E-3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>9.6124000000000003E-5</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2.9221719554689819E-5</v>
+      </c>
+      <c r="L13" s="1">
+        <v>8.0422887332234148E-6</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1.2183549973723694E-6</v>
+      </c>
+      <c r="N13" s="1">
+        <v>7.2368846017139668E-5</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="2">
+        <v>0.73381118976840276</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.79670582330651707</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0.70466044032157338</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0.75848411444539454</v>
+      </c>
+      <c r="V13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AJ13" s="3"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>3.7176000000000001E-2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.1111000000000001E-3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.0018999999999999E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4.8074000000000001E-4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3.5000999999999999E-3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8.4233999999999993E-5</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.1741</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2.4859298410743392E-5</v>
+      </c>
+      <c r="L14" s="1">
+        <v>7.34304539093014E-6</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1.187485576719754E-6</v>
+      </c>
+      <c r="N14" s="1">
+        <v>6.446887443157975E-5</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.57789293941667352</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.62693276439908674</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.65328551785711075</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0.47757936433615089</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>5.79E-2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.8E-3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.2890000000000001E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6.6828999999999999E-4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>7.7602999999999995E-5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="K15" s="1">
+        <v>3.9607936043884834E-5</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1.0507137652550724E-5</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1.451665662513479E-6</v>
+      </c>
+      <c r="N15" s="1">
+        <v>9.5225999945650395E-5</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="2">
+        <v>0.59430874607316408</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0.68134937144915331</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0.68660011603900206</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0.67951308324882631</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AJ15" s="3"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>3.9905999999999997E-2</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.1758999999999999E-3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.8630000000000001E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>6.7520999999999998E-4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="F16" s="2">
+        <v>7.6760000000000004E-5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.1167</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2.4956892248321772E-5</v>
+      </c>
+      <c r="L16" s="1">
+        <v>8.4649384529677159E-6</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1.314281432010509E-6</v>
+      </c>
+      <c r="N16" s="1">
+        <v>6.866466218692139E-5</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.58915021922411837</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.850140175147861</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0.74859304250618075</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0.70652563450410588</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.23E-2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>6.4110000000000002E-4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.1781E-4</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.14080000000000001</v>
+      </c>
+      <c r="H17" s="2">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2.1287575123295648E-5</v>
+      </c>
+      <c r="L17" s="1">
+        <v>8.1046499751507778E-6</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1.6468773135821054E-6</v>
+      </c>
+      <c r="N17" s="1">
+        <v>6.3192129608917634E-5</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.61032368934498882</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0.75400845894639956</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0.63653144808341611</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0.56992288757839582</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>4.5798999999999999E-2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.6998E-3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.2197E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3.4958999999999999E-4</v>
+      </c>
+      <c r="E18" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F18" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.16339999999999999</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2.6665098131205987E-5</v>
+      </c>
+      <c r="L18" s="1">
+        <v>7.8230933374149585E-6</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1.2928800889776538E-6</v>
+      </c>
+      <c r="N18" s="1">
+        <v>6.8046303746505912E-5</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.76907419283972511</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0.56586552767414955</v>
+      </c>
+      <c r="R18" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0.67476760184746132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>1.8270999999999999E-2</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5.1104999999999998E-4</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2.3771E-4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="F19" s="2">
+        <v>5.9197999999999998E-5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4.5900000000000003E-2</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1.1476790091104153E-5</v>
+      </c>
+      <c r="L19" s="1">
+        <v>4.4115727754132151E-6</v>
+      </c>
+      <c r="M19" s="1">
+        <v>7.5949507403802481E-7</v>
+      </c>
+      <c r="N19" s="1">
+        <v>3.37788790628039E-5</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.55801004749858496</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.62112882786696022</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0.74114794814660923</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1.0841885312611081</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>3.9335000000000002E-2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.4526000000000001E-3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.7641E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>4.9467999999999995E-4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.8E-3</v>
+      </c>
+      <c r="F20" s="2">
+        <v>8.0611000000000005E-5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.14069999999999999</v>
+      </c>
+      <c r="H20" s="2">
+        <v>5.0752999999999996E-3</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3.2885596587156061E-5</v>
+      </c>
+      <c r="L20" s="1">
+        <v>8.7737015798489975E-6</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1.4827404598123445E-6</v>
+      </c>
+      <c r="N20" s="1">
+        <v>8.1914958504015581E-5</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.6385921924141591</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0.62869691190311661</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0.62553660424364554</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0.7474860056006507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>7.7381000000000005E-2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.0948999999999998E-3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4.3784999999999998E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.1271E-3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>6.0851000000000004E-3</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.7864000000000001E-4</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.29772999999999999</v>
+      </c>
+      <c r="H21" s="1">
+        <v>7.8123999999999997E-3</v>
+      </c>
+      <c r="K21" s="1">
+        <v>5.0730829323462575E-5</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1.5567880956879086E-5</v>
+      </c>
+      <c r="M21" s="1">
+        <v>2.5265300504059361E-6</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1.3400839952245632E-4</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.52866450341672544</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0.68258230576265966</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0.72036502773421485</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0.61841094414336983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>3.5136000000000001E-2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1.0277000000000001E-3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.9036000000000001E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5.8546E-4</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.3E-3</v>
+      </c>
+      <c r="F22" s="2">
+        <v>9.2323000000000004E-5</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.1734</v>
+      </c>
+      <c r="H22" s="2">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="K22" s="1">
+        <v>3.3936390075526426E-5</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1.0508656355365578E-5</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1.4813071233826618E-6</v>
+      </c>
+      <c r="N22" s="1">
+        <v>8.7707324550339558E-5</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.4705734063097064</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0.65449418074860011</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0.66023780310536073</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0.71798530079755607</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>2.3862000000000001E-2</v>
+      </c>
+      <c r="B23" s="2">
+        <v>7.9672E-4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.0036000000000002E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5.0122999999999997E-4</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2.8132999999999999E-3</v>
+      </c>
+      <c r="F23" s="2">
+        <v>7.6695999999999999E-5</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.10958</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1.931E-3</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2.0379129497924278E-5</v>
+      </c>
+      <c r="L23" s="1">
+        <v>7.9594992718540262E-6</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1.1256350770078881E-6</v>
+      </c>
+      <c r="N23" s="1">
+        <v>5.860817658301662E-5</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.57125430835594171</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0.62756494433139698</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0.68145296665182253</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0.38098469122711237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="B24" s="2">
+        <v>6.4594999999999995E-4</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7.0375000000000004E-3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3.6493000000000002E-4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.4E-3</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5.1264999999999998E-5</v>
+      </c>
+      <c r="G24" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H24" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1.6466950548886301E-5</v>
+      </c>
+      <c r="L24" s="1">
+        <v>6.4645693512724958E-6</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1.0963038724935797E-6</v>
+      </c>
+      <c r="N24" s="1">
+        <v>4.8760682973726945E-5</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0.63119529669298458</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0.85546169532986238</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0.6542767294856261</v>
+      </c>
+      <c r="S24" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>3.6289000000000002E-2</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.5204000000000001E-3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.1189E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>7.1486E-4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5.6915000000000004E-3</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1.4605999999999999E-4</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.106</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2.6194451046700132E-5</v>
+      </c>
+      <c r="L25" s="1">
+        <v>9.7640003924389737E-6</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1.9447391737284186E-6</v>
+      </c>
+      <c r="N25" s="1">
+        <v>7.6428156458429296E-5</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.77971468586236614</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0.78581782625105734</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0.69415626762463001</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0.52700123678030075</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>2.6932999999999999E-2</v>
+      </c>
+      <c r="B26" s="1">
+        <v>7.4777999999999997E-4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.6159E-2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>5.2744000000000001E-4</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4.7638999999999997E-3</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1.1018000000000001E-4</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2.0546004783542919E-5</v>
+      </c>
+      <c r="L26" s="1">
+        <v>9.612077154486195E-6</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1.4189050265733531E-6</v>
+      </c>
+      <c r="N26" s="1">
+        <v>6.4519525002088268E-5</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.50261771535791389</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0.66915573205158441</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0.67006169327883558</v>
+      </c>
+      <c r="S26" s="1">
+        <v>0.37395489448394648</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="P28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="P29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="P30" s="1">
+        <f>AVERAGEIF(_xlfn.ANCHORARRAY(P4),"&lt;&gt;#N/A")</f>
+        <v>0.61408895895915983</v>
+      </c>
+      <c r="Q30" s="1">
+        <f>AVERAGEIF(_xlfn.ANCHORARRAY(Q4),"&lt;&gt;#N/A")</f>
+        <v>0.68836967919702097</v>
+      </c>
+      <c r="R30" s="1">
+        <f>AVERAGEIF(_xlfn.ANCHORARRAY(R4),"&lt;&gt;#N/A")</f>
+        <v>0.68126156322068487</v>
+      </c>
+      <c r="S30" s="1">
+        <f>AVERAGEIF(_xlfn.ANCHORARRAY(S4),"&lt;&gt;#N/A")</f>
+        <v>0.63001610475624326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="O31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P31" s="1" cm="1">
+        <f t="array" ref="P31">_xlfn.STDEV.S(IFERROR(_xlfn.ANCHORARRAY(P4),0))</f>
+        <v>0.15136658208505538</v>
+      </c>
+      <c r="Q31" s="1" cm="1">
+        <f t="array" ref="Q31">_xlfn.STDEV.S(IFERROR(_xlfn.ANCHORARRAY(Q4),0))</f>
+        <v>8.8259078351683923E-2</v>
+      </c>
+      <c r="R31" s="1" cm="1">
+        <f t="array" ref="R31">_xlfn.STDEV.S(IFERROR(_xlfn.ANCHORARRAY(R4),0))</f>
+        <v>0.15351325415813596</v>
+      </c>
+      <c r="S31" s="1" cm="1">
+        <f t="array" ref="S31">_xlfn.STDEV.S(IFERROR(_xlfn.ANCHORARRAY(S4),0))</f>
+        <v>0.26414190140953914</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F13CF5-A8A7-4F2F-BE67-EF4ADA24A47D}">
+  <dimension ref="A1:AJ31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="J29" sqref="J29:N30"/>
     </sheetView>
   </sheetViews>
@@ -2250,1431 +3597,6 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="K2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="P2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>5.4260999999999997E-2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1.7286000000000001E-3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2.3099999999999999E-2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>6.3602000000000005E-4</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3.7206000000000001E-3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1.0648E-4</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.1779</v>
-      </c>
-      <c r="H4" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="K4" s="1">
-        <v>4.1167797505769689E-5</v>
-      </c>
-      <c r="L4" s="1">
-        <v>8.4601761656685789E-6</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1.5989593299737688E-6</v>
-      </c>
-      <c r="N4" s="1">
-        <v>9.2884438280386105E-5</v>
-      </c>
-      <c r="P4" s="1" cm="1">
-        <f t="array" ref="P4:P26">B4:B26/(2*K4:K26*SQRT(A4:A26/K4:K26))</f>
-        <v>0.57828483038634471</v>
-      </c>
-      <c r="Q4" s="2" cm="1">
-        <f t="array" ref="Q4:Q26">D4:D26/(2*L4:L26*SQRT(C4:C26/L4:L26))</f>
-        <v>0.71935800978209896</v>
-      </c>
-      <c r="R4" s="2" cm="1">
-        <f t="array" ref="R4:R26">F4:F26/(2*M4:M26*SQRT(E4:E26/M4:M26))</f>
-        <v>0.69026022266038634</v>
-      </c>
-      <c r="S4" s="2" cm="1">
-        <f t="array" ref="S4:S26">H4:H26/(2*N4:N26*SQRT(G4:G26/N4:N26))</f>
-        <v>0.6150077026337929</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2.6200000000000001E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>6.5890000000000002E-4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.3800999999999999E-4</v>
-      </c>
-      <c r="G5" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H5" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2.699935312314911E-5</v>
-      </c>
-      <c r="L5" s="1">
-        <v>9.4662770203746168E-6</v>
-      </c>
-      <c r="M5" s="1">
-        <v>2.0370916051631638E-6</v>
-      </c>
-      <c r="N5" s="1">
-        <v>7.8392548116236322E-5</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0.52727051581508888</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0.66152956970834564</v>
-      </c>
-      <c r="R5" s="1">
-        <v>0.8057940018997608</v>
-      </c>
-      <c r="S5" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.77E-2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>6.6456999999999996E-4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2.9307000000000001E-3</v>
-      </c>
-      <c r="F6" s="2">
-        <v>8.6562000000000002E-5</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.12620000000000001</v>
-      </c>
-      <c r="H6" s="2">
-        <v>3.3999999999999998E-3</v>
-      </c>
-      <c r="K6" s="1">
-        <v>2.4013474617869273E-5</v>
-      </c>
-      <c r="L6" s="1">
-        <v>9.584046966200826E-6</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1.1676547848728011E-6</v>
-      </c>
-      <c r="N6" s="1">
-        <v>6.8883486056966076E-5</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0.61684441533255441</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0.80676980777605467</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0.73986821909750677</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0.57658280291152963</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>3.5275000000000001E-2</v>
-      </c>
-      <c r="B7" s="2">
-        <v>9.7022000000000005E-4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.2952E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4.4087999999999999E-4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5.4855000000000002E-5</v>
-      </c>
-      <c r="G7" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H7" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1.6680839317348125E-5</v>
-      </c>
-      <c r="L7" s="1">
-        <v>6.6677956490364653E-6</v>
-      </c>
-      <c r="M7" s="1">
-        <v>9.2781732133195738E-7</v>
-      </c>
-      <c r="N7" s="1">
-        <v>4.8275627540355978E-5</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0.63240859905807001</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0.75012017075348181</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0.58123179693903049</v>
-      </c>
-      <c r="S7" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B8" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.2869E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3.9532E-4</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2.0793999999999999E-3</v>
-      </c>
-      <c r="F8" s="2">
-        <v>6.5487999999999994E-5</v>
-      </c>
-      <c r="G8" s="1">
-        <v>8.8400000000000006E-2</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2.8E-3</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1.7778568913219443E-5</v>
-      </c>
-      <c r="L8" s="1">
-        <v>6.8300404071388088E-6</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1.1571537183702186E-6</v>
-      </c>
-      <c r="N8" s="1">
-        <v>5.2022845360513942E-5</v>
-      </c>
-      <c r="P8" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0.66670659950519273</v>
-      </c>
-      <c r="R8" s="1">
-        <v>0.6675244601268806</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0.65283713796277942</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>2.6335999999999998E-2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8.8358000000000002E-4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>8.3999999999999995E-3</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2.7360999999999998E-4</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1E-3</v>
-      </c>
-      <c r="F9" s="2">
-        <v>4.2774000000000001E-5</v>
-      </c>
-      <c r="G9" s="1">
-        <v>3.2820000000000002E-2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>9.8915000000000006E-4</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1.4360131790560066E-5</v>
-      </c>
-      <c r="L9" s="1">
-        <v>5.168856071732809E-6</v>
-      </c>
-      <c r="M9" s="1">
-        <v>7.8227398240022579E-7</v>
-      </c>
-      <c r="N9" s="1">
-        <v>3.9844492773115383E-5</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0.71839245375948668</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0.65654592141307644</v>
-      </c>
-      <c r="R9" s="1">
-        <v>0.76466361611930189</v>
-      </c>
-      <c r="S9" s="1">
-        <v>0.43249263883410671</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>2.8899999999999999E-2</v>
-      </c>
-      <c r="B10" s="2">
-        <v>9.6716E-4</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.0465E-2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2.5567E-4</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="F10" s="2">
-        <v>6.1402000000000006E-5</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5.6599999999999998E-2</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1.7518288214818752E-5</v>
-      </c>
-      <c r="L10" s="1">
-        <v>4.3425647488700436E-6</v>
-      </c>
-      <c r="M10" s="1">
-        <v>8.0938637482872099E-7</v>
-      </c>
-      <c r="N10" s="1">
-        <v>4.2189375151791399E-5</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0.67963161944901251</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0.59966266172213412</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0.69657672030264217</v>
-      </c>
-      <c r="S10" s="1">
-        <v>0.64712806919357813</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>3.3099999999999997E-2</v>
-      </c>
-      <c r="B11" s="2">
-        <v>8.5050000000000002E-4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.2782E-2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2.7936999999999998E-4</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1.5E-3</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3.5488000000000003E-5</v>
-      </c>
-      <c r="G11" s="1">
-        <v>9.7199999999999995E-2</v>
-      </c>
-      <c r="H11" s="2">
-        <v>3.3999999999999998E-3</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1.7780641782376191E-5</v>
-      </c>
-      <c r="L11" s="1">
-        <v>5.7294913895545727E-6</v>
-      </c>
-      <c r="M11" s="1">
-        <v>6.6945605108799321E-7</v>
-      </c>
-      <c r="N11" s="1">
-        <v>4.5772974024681841E-5</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="1">
-        <v>0.55431497215520253</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0.51616948941418428</v>
-      </c>
-      <c r="R11" s="1">
-        <v>0.5599443457703609</v>
-      </c>
-      <c r="S11" s="1">
-        <v>0.80595579712466625</v>
-      </c>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>4.9695000000000003E-2</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1.3778E-3</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1.5100000000000001E-2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>4.1996999999999998E-4</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2.7284000000000002E-3</v>
-      </c>
-      <c r="F12" s="2">
-        <v>6.0182000000000001E-5</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.17480000000000001</v>
-      </c>
-      <c r="H12" s="2">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="K12" s="1">
-        <v>2.2769336406098221E-5</v>
-      </c>
-      <c r="L12" s="1">
-        <v>6.7911253575974357E-6</v>
-      </c>
-      <c r="M12" s="1">
-        <v>9.0672462039732525E-7</v>
-      </c>
-      <c r="N12" s="1">
-        <v>5.7184455300693415E-5</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0.64762655857030249</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0.65573584628851167</v>
-      </c>
-      <c r="R12" s="1">
-        <v>0.6049854028611692</v>
-      </c>
-      <c r="S12" s="1">
-        <v>0.5535136562100319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>3.5762000000000002E-2</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1.5003E-3</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2.0961E-2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>6.5421999999999995E-4</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3.8183000000000002E-3</v>
-      </c>
-      <c r="F13" s="2">
-        <v>9.6124000000000003E-5</v>
-      </c>
-      <c r="G13" s="1">
-        <v>5.0500000000000003E-2</v>
-      </c>
-      <c r="H13" s="2">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2.9221719554689819E-5</v>
-      </c>
-      <c r="L13" s="1">
-        <v>8.0422887332234148E-6</v>
-      </c>
-      <c r="M13" s="1">
-        <v>1.2183549973723694E-6</v>
-      </c>
-      <c r="N13" s="1">
-        <v>7.2368846017139668E-5</v>
-      </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="2">
-        <v>0.73381118976840276</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0.79670582330651707</v>
-      </c>
-      <c r="R13" s="1">
-        <v>0.70466044032157338</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0.75848411444539454</v>
-      </c>
-      <c r="V13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AJ13" s="3"/>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>3.7176000000000001E-2</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1.1111000000000001E-3</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2.0018999999999999E-2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>4.8074000000000001E-4</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3.5000999999999999E-3</v>
-      </c>
-      <c r="F14" s="2">
-        <v>8.4233999999999993E-5</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.1741</v>
-      </c>
-      <c r="H14" s="2">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="K14" s="1">
-        <v>2.4859298410743392E-5</v>
-      </c>
-      <c r="L14" s="1">
-        <v>7.34304539093014E-6</v>
-      </c>
-      <c r="M14" s="1">
-        <v>1.187485576719754E-6</v>
-      </c>
-      <c r="N14" s="1">
-        <v>6.446887443157975E-5</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0.57789293941667352</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>0.62693276439908674</v>
-      </c>
-      <c r="R14" s="1">
-        <v>0.65328551785711075</v>
-      </c>
-      <c r="S14" s="2">
-        <v>0.47757936433615089</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>5.79E-2</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1.8E-3</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2.2890000000000001E-2</v>
-      </c>
-      <c r="D15" s="1">
-        <v>6.6828999999999999E-4</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="F15" s="2">
-        <v>7.7602999999999995E-5</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="H15" s="2">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="K15" s="1">
-        <v>3.9607936043884834E-5</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1.0507137652550724E-5</v>
-      </c>
-      <c r="M15" s="1">
-        <v>1.451665662513479E-6</v>
-      </c>
-      <c r="N15" s="1">
-        <v>9.5225999945650395E-5</v>
-      </c>
-      <c r="O15" s="3"/>
-      <c r="P15" s="2">
-        <v>0.59430874607316408</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0.68134937144915331</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0.68660011603900206</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0.67951308324882631</v>
-      </c>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AJ15" s="3"/>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>3.9905999999999997E-2</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1.1758999999999999E-3</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1.8630000000000001E-2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>6.7520999999999998E-4</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="F16" s="2">
-        <v>7.6760000000000004E-5</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.1167</v>
-      </c>
-      <c r="H16" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="K16" s="1">
-        <v>2.4956892248321772E-5</v>
-      </c>
-      <c r="L16" s="1">
-        <v>8.4649384529677159E-6</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1.314281432010509E-6</v>
-      </c>
-      <c r="N16" s="1">
-        <v>6.866466218692139E-5</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0.58915021922411837</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>0.850140175147861</v>
-      </c>
-      <c r="R16" s="1">
-        <v>0.74859304250618075</v>
-      </c>
-      <c r="S16" s="1">
-        <v>0.70652563450410588</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>4.5400000000000003E-2</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2.23E-2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>6.4110000000000002E-4</v>
-      </c>
-      <c r="E17" s="1">
-        <v>5.1999999999999998E-3</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1.1781E-4</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.14080000000000001</v>
-      </c>
-      <c r="H17" s="2">
-        <v>3.3999999999999998E-3</v>
-      </c>
-      <c r="K17" s="1">
-        <v>2.1287575123295648E-5</v>
-      </c>
-      <c r="L17" s="1">
-        <v>8.1046499751507778E-6</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1.6468773135821054E-6</v>
-      </c>
-      <c r="N17" s="1">
-        <v>6.3192129608917634E-5</v>
-      </c>
-      <c r="P17" s="2">
-        <v>0.61032368934498882</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0.75400845894639956</v>
-      </c>
-      <c r="R17" s="2">
-        <v>0.63653144808341611</v>
-      </c>
-      <c r="S17" s="2">
-        <v>0.56992288757839582</v>
-      </c>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>4.5798999999999999E-2</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1.6998E-3</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1.2197E-2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3.4958999999999999E-4</v>
-      </c>
-      <c r="E18" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F18" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0.16339999999999999</v>
-      </c>
-      <c r="H18" s="2">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="K18" s="1">
-        <v>2.6665098131205987E-5</v>
-      </c>
-      <c r="L18" s="1">
-        <v>7.8230933374149585E-6</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1.2928800889776538E-6</v>
-      </c>
-      <c r="N18" s="1">
-        <v>6.8046303746505912E-5</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0.76907419283972511</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>0.56586552767414955</v>
-      </c>
-      <c r="R18" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S18" s="1">
-        <v>0.67476760184746132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>1.8270999999999999E-2</v>
-      </c>
-      <c r="B19" s="2">
-        <v>5.1104999999999998E-4</v>
-      </c>
-      <c r="C19" s="1">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2.3771E-4</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="F19" s="2">
-        <v>5.9197999999999998E-5</v>
-      </c>
-      <c r="G19" s="1">
-        <v>4.5900000000000003E-2</v>
-      </c>
-      <c r="H19" s="2">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1.1476790091104153E-5</v>
-      </c>
-      <c r="L19" s="1">
-        <v>4.4115727754132151E-6</v>
-      </c>
-      <c r="M19" s="1">
-        <v>7.5949507403802481E-7</v>
-      </c>
-      <c r="N19" s="1">
-        <v>3.37788790628039E-5</v>
-      </c>
-      <c r="P19" s="1">
-        <v>0.55801004749858496</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>0.62112882786696022</v>
-      </c>
-      <c r="R19" s="1">
-        <v>0.74114794814660923</v>
-      </c>
-      <c r="S19" s="1">
-        <v>1.0841885312611081</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>3.9335000000000002E-2</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1.4526000000000001E-3</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.7641E-2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>4.9467999999999995E-4</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2.8E-3</v>
-      </c>
-      <c r="F20" s="2">
-        <v>8.0611000000000005E-5</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.14069999999999999</v>
-      </c>
-      <c r="H20" s="2">
-        <v>5.0752999999999996E-3</v>
-      </c>
-      <c r="K20" s="1">
-        <v>3.2885596587156061E-5</v>
-      </c>
-      <c r="L20" s="1">
-        <v>8.7737015798489975E-6</v>
-      </c>
-      <c r="M20" s="1">
-        <v>1.4827404598123445E-6</v>
-      </c>
-      <c r="N20" s="1">
-        <v>8.1914958504015581E-5</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0.6385921924141591</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>0.62869691190311661</v>
-      </c>
-      <c r="R20" s="1">
-        <v>0.62553660424364554</v>
-      </c>
-      <c r="S20" s="1">
-        <v>0.7474860056006507</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>7.7381000000000005E-2</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2.0948999999999998E-3</v>
-      </c>
-      <c r="C21" s="1">
-        <v>4.3784999999999998E-2</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1.1271E-3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>6.0851000000000004E-3</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1.7864000000000001E-4</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.29772999999999999</v>
-      </c>
-      <c r="H21" s="1">
-        <v>7.8123999999999997E-3</v>
-      </c>
-      <c r="K21" s="1">
-        <v>5.0730829323462575E-5</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1.5567880956879086E-5</v>
-      </c>
-      <c r="M21" s="1">
-        <v>2.5265300504059361E-6</v>
-      </c>
-      <c r="N21" s="1">
-        <v>1.3400839952245632E-4</v>
-      </c>
-      <c r="P21" s="1">
-        <v>0.52866450341672544</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>0.68258230576265966</v>
-      </c>
-      <c r="R21" s="1">
-        <v>0.72036502773421485</v>
-      </c>
-      <c r="S21" s="1">
-        <v>0.61841094414336983</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>3.5136000000000001E-2</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1.0277000000000001E-3</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1.9036000000000001E-2</v>
-      </c>
-      <c r="D22" s="1">
-        <v>5.8546E-4</v>
-      </c>
-      <c r="E22" s="1">
-        <v>3.3E-3</v>
-      </c>
-      <c r="F22" s="2">
-        <v>9.2323000000000004E-5</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.1734</v>
-      </c>
-      <c r="H22" s="2">
-        <v>5.5999999999999999E-3</v>
-      </c>
-      <c r="K22" s="1">
-        <v>3.3936390075526426E-5</v>
-      </c>
-      <c r="L22" s="1">
-        <v>1.0508656355365578E-5</v>
-      </c>
-      <c r="M22" s="1">
-        <v>1.4813071233826618E-6</v>
-      </c>
-      <c r="N22" s="1">
-        <v>8.7707324550339558E-5</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0.4705734063097064</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>0.65449418074860011</v>
-      </c>
-      <c r="R22" s="1">
-        <v>0.66023780310536073</v>
-      </c>
-      <c r="S22" s="1">
-        <v>0.71798530079755607</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>2.3862000000000001E-2</v>
-      </c>
-      <c r="B23" s="2">
-        <v>7.9672E-4</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2.0036000000000002E-2</v>
-      </c>
-      <c r="D23" s="1">
-        <v>5.0122999999999997E-4</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2.8132999999999999E-3</v>
-      </c>
-      <c r="F23" s="2">
-        <v>7.6695999999999999E-5</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.10958</v>
-      </c>
-      <c r="H23" s="2">
-        <v>1.931E-3</v>
-      </c>
-      <c r="K23" s="1">
-        <v>2.0379129497924278E-5</v>
-      </c>
-      <c r="L23" s="1">
-        <v>7.9594992718540262E-6</v>
-      </c>
-      <c r="M23" s="1">
-        <v>1.1256350770078881E-6</v>
-      </c>
-      <c r="N23" s="1">
-        <v>5.860817658301662E-5</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0.57125430835594171</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>0.62756494433139698</v>
-      </c>
-      <c r="R23" s="1">
-        <v>0.68145296665182253</v>
-      </c>
-      <c r="S23" s="1">
-        <v>0.38098469122711237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="B24" s="2">
-        <v>6.4594999999999995E-4</v>
-      </c>
-      <c r="C24" s="1">
-        <v>7.0375000000000004E-3</v>
-      </c>
-      <c r="D24" s="1">
-        <v>3.6493000000000002E-4</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1.4E-3</v>
-      </c>
-      <c r="F24" s="2">
-        <v>5.1264999999999998E-5</v>
-      </c>
-      <c r="G24" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H24" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K24" s="1">
-        <v>1.6466950548886301E-5</v>
-      </c>
-      <c r="L24" s="1">
-        <v>6.4645693512724958E-6</v>
-      </c>
-      <c r="M24" s="1">
-        <v>1.0963038724935797E-6</v>
-      </c>
-      <c r="N24" s="1">
-        <v>4.8760682973726945E-5</v>
-      </c>
-      <c r="P24" s="1">
-        <v>0.63119529669298458</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>0.85546169532986238</v>
-      </c>
-      <c r="R24" s="1">
-        <v>0.6542767294856261</v>
-      </c>
-      <c r="S24" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>3.6289000000000002E-2</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1.5204000000000001E-3</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2.1189E-2</v>
-      </c>
-      <c r="D25" s="1">
-        <v>7.1486E-4</v>
-      </c>
-      <c r="E25" s="1">
-        <v>5.6915000000000004E-3</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1.4605999999999999E-4</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.106</v>
-      </c>
-      <c r="H25" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="K25" s="1">
-        <v>2.6194451046700132E-5</v>
-      </c>
-      <c r="L25" s="1">
-        <v>9.7640003924389737E-6</v>
-      </c>
-      <c r="M25" s="1">
-        <v>1.9447391737284186E-6</v>
-      </c>
-      <c r="N25" s="1">
-        <v>7.6428156458429296E-5</v>
-      </c>
-      <c r="P25" s="1">
-        <v>0.77971468586236614</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>0.78581782625105734</v>
-      </c>
-      <c r="R25" s="1">
-        <v>0.69415626762463001</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0.52700123678030075</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>2.6932999999999999E-2</v>
-      </c>
-      <c r="B26" s="1">
-        <v>7.4777999999999997E-4</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1.6159E-2</v>
-      </c>
-      <c r="D26" s="2">
-        <v>5.2744000000000001E-4</v>
-      </c>
-      <c r="E26" s="1">
-        <v>4.7638999999999997E-3</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1.1018000000000001E-4</v>
-      </c>
-      <c r="G26" s="1">
-        <v>3.9899999999999998E-2</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="K26" s="1">
-        <v>2.0546004783542919E-5</v>
-      </c>
-      <c r="L26" s="1">
-        <v>9.612077154486195E-6</v>
-      </c>
-      <c r="M26" s="1">
-        <v>1.4189050265733531E-6</v>
-      </c>
-      <c r="N26" s="1">
-        <v>6.4519525002088268E-5</v>
-      </c>
-      <c r="P26" s="1">
-        <v>0.50261771535791389</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>0.66915573205158441</v>
-      </c>
-      <c r="R26" s="1">
-        <v>0.67006169327883558</v>
-      </c>
-      <c r="S26" s="1">
-        <v>0.37395489448394648</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="P28" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="J29" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29">
-        <f>_xlfn.STDEV.S(K4:K26)</f>
-        <v>9.4478247841759352E-6</v>
-      </c>
-      <c r="L29">
-        <f>_xlfn.STDEV.S(L4:L26)</f>
-        <v>2.4108117081929706E-6</v>
-      </c>
-      <c r="M29">
-        <f>_xlfn.STDEV.S(M4:M26)</f>
-        <v>4.4706431020486614E-7</v>
-      </c>
-      <c r="N29">
-        <f>_xlfn.STDEV.S(N4:N26)</f>
-        <v>2.2229627619778065E-5</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="J30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30">
-        <f>K29*100/AVERAGE(K4:K26)</f>
-        <v>37.576746167178875</v>
-      </c>
-      <c r="L30">
-        <f>L29*100/AVERAGE(L4:L26)</f>
-        <v>29.749137524999846</v>
-      </c>
-      <c r="M30">
-        <f>M29*100/AVERAGE(M4:M26)</f>
-        <v>34.270682350020628</v>
-      </c>
-      <c r="N30">
-        <f>N29*100/AVERAGE(N4:N26)</f>
-        <v>33.13246937230754</v>
-      </c>
-      <c r="P30" s="1">
-        <f>AVERAGEIF(_xlfn.ANCHORARRAY(P4),"&lt;&gt;#N/A")</f>
-        <v>0.61408895895915983</v>
-      </c>
-      <c r="Q30" s="1">
-        <f>AVERAGEIF(_xlfn.ANCHORARRAY(Q4),"&lt;&gt;#N/A")</f>
-        <v>0.68836967919702097</v>
-      </c>
-      <c r="R30" s="1">
-        <f>AVERAGEIF(_xlfn.ANCHORARRAY(R4),"&lt;&gt;#N/A")</f>
-        <v>0.68126156322068487</v>
-      </c>
-      <c r="S30" s="1">
-        <f>AVERAGEIF(_xlfn.ANCHORARRAY(S4),"&lt;&gt;#N/A")</f>
-        <v>0.63001610475624326</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="O31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P31" s="1" cm="1">
-        <f t="array" ref="P31">_xlfn.STDEV.S(IFERROR(_xlfn.ANCHORARRAY(P4),0))</f>
-        <v>0.15136658208505538</v>
-      </c>
-      <c r="Q31" s="1" cm="1">
-        <f t="array" ref="Q31">_xlfn.STDEV.S(IFERROR(_xlfn.ANCHORARRAY(Q4),0))</f>
-        <v>8.8259078351683923E-2</v>
-      </c>
-      <c r="R31" s="1" cm="1">
-        <f t="array" ref="R31">_xlfn.STDEV.S(IFERROR(_xlfn.ANCHORARRAY(R4),0))</f>
-        <v>0.15351325415813596</v>
-      </c>
-      <c r="S31" s="1" cm="1">
-        <f t="array" ref="S31">_xlfn.STDEV.S(IFERROR(_xlfn.ANCHORARRAY(S4),0))</f>
-        <v>0.26414190140953914</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="P28:S28"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F13CF5-A8A7-4F2F-BE67-EF4ADA24A47D}">
-  <dimension ref="A1:AJ31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="12"/>
@@ -4980,25 +4902,6 @@
       <c r="S28" s="12"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="J29" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29">
-        <f>_xlfn.STDEV.S(K4:K26)</f>
-        <v>7.5005081138700669E-6</v>
-      </c>
-      <c r="L29">
-        <f>_xlfn.STDEV.S(L4:L26)</f>
-        <v>1.7608460805800403E-6</v>
-      </c>
-      <c r="M29">
-        <f>_xlfn.STDEV.S(M4:M26)</f>
-        <v>4.2134105585357114E-7</v>
-      </c>
-      <c r="N29">
-        <f>_xlfn.STDEV.S(N4:N26)</f>
-        <v>1.78172392893031E-5</v>
-      </c>
       <c r="P29" s="1" t="s">
         <v>10</v>
       </c>
@@ -5013,25 +4916,6 @@
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="J30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30">
-        <f>K29*100/AVERAGE(K4:K26)</f>
-        <v>40.140689885753581</v>
-      </c>
-      <c r="L30">
-        <f>L29*100/AVERAGE(L4:L26)</f>
-        <v>29.980963474881474</v>
-      </c>
-      <c r="M30">
-        <f>M29*100/AVERAGE(M4:M26)</f>
-        <v>39.343503465617715</v>
-      </c>
-      <c r="N30">
-        <f>N29*100/AVERAGE(N4:N26)</f>
-        <v>35.728518591384457</v>
-      </c>
       <c r="P30" s="1">
         <f>AVERAGEIF(_xlfn.ANCHORARRAY(P4),"&lt;&gt;#N/A")</f>
         <v>0.5905668327097624</v>
@@ -5089,8 +4973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3556B6B-5C2E-4203-9A23-9398A5A76E4D}">
   <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6425,33 +6309,6 @@
       <c r="S28" s="12"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <f>_xlfn.STDEV.S(A4:A26)</f>
-        <v>6.353452664098533E-3</v>
-      </c>
-      <c r="B29">
-        <f>_xlfn.STDEV.S(B4:B26)</f>
-        <v>1.8363478499047511E-4</v>
-      </c>
-      <c r="J29" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29">
-        <f>_xlfn.STDEV.S(K4:K26)</f>
-        <v>3.1189113063228767E-6</v>
-      </c>
-      <c r="L29">
-        <f>_xlfn.STDEV.S(L4:L26)</f>
-        <v>6.5713936841570842E-7</v>
-      </c>
-      <c r="M29">
-        <f>_xlfn.STDEV.S(M4:M26)</f>
-        <v>2.4392017050195968E-7</v>
-      </c>
-      <c r="N29">
-        <f>_xlfn.STDEV.S(N4:N26)</f>
-        <v>7.3955051604986574E-6</v>
-      </c>
       <c r="P29" s="1" t="s">
         <v>10</v>
       </c>
@@ -6466,25 +6323,6 @@
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="J30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30">
-        <f>K29*100/AVERAGE(K4:K26)</f>
-        <v>43.79041333697721</v>
-      </c>
-      <c r="L30">
-        <f>L29*100/AVERAGE(L4:L26)</f>
-        <v>33.697935455654601</v>
-      </c>
-      <c r="M30">
-        <f>M29*100/AVERAGE(M4:M26)</f>
-        <v>37.970625852767931</v>
-      </c>
-      <c r="N30">
-        <f>N29*100/AVERAGE(N4:N26)</f>
-        <v>38.226339974855243</v>
-      </c>
       <c r="P30" s="2">
         <f>AVERAGE(_xlfn.ANCHORARRAY(P4))</f>
         <v>0.68871938355671447</v>
